--- a/src/main/resources/poi/report_quality_badProduct.xlsx
+++ b/src/main/resources/poi/report_quality_badProduct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gyhl_3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA47B25-126D-4A48-B082-635EDF9A42D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC2E93-C02F-4901-A123-00324451752A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.materielSerialNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>批号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,6 +83,10 @@
   </si>
   <si>
     <t>t.unqualifiedCount}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.serialNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +489,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
@@ -544,13 +544,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
